--- a/Output/test_val_data_B.xlsx
+++ b/Output/test_val_data_B.xlsx
@@ -457,1304 +457,1304 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2019</v>
+        <v>0.4037999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1896301254036201</v>
+        <v>0.3902051069973138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1152333333333333</v>
+        <v>0.2304666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1146082351891714</v>
+        <v>0.2297248379752011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1055333333333333</v>
+        <v>0.2110666666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09652909232172183</v>
+        <v>0.2008484787371316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2169</v>
+        <v>0.4338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2073739757870789</v>
+        <v>0.4249325717021922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1081666666666667</v>
+        <v>0.2163333333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1137088156222724</v>
+        <v>0.2206649614961234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1620333333333333</v>
+        <v>0.3240666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1598562232205276</v>
+        <v>0.3250017110844053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1984333333333333</v>
+        <v>0.3968666666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1887515898338815</v>
+        <v>0.3886968643607123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2028666666666667</v>
+        <v>0.4057333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1916110385610062</v>
+        <v>0.39323534743181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1624333333333333</v>
+        <v>0.3248666666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1698043006617039</v>
+        <v>0.3355934493926306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2025333333333333</v>
+        <v>0.4050666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1945392839884303</v>
+        <v>0.3995163607708941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1922666666666667</v>
+        <v>0.3845333333333333</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1833147773328221</v>
+        <v>0.3768254834574345</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1432333333333333</v>
+        <v>0.2864666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1430397676473274</v>
+        <v>0.2862616254879067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2091</v>
+        <v>0.4182</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2051333872890072</v>
+        <v>0.4195604666393542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1825</v>
+        <v>0.365</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1739279060156615</v>
+        <v>0.3647936057891298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1926666666666667</v>
+        <v>0.3853333333333334</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1852440413777545</v>
+        <v>0.3818460613541888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1920666666666667</v>
+        <v>0.3841333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1825862430645265</v>
+        <v>0.3743568486665781</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2237666666666667</v>
+        <v>0.4475333333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2141837430879581</v>
+        <v>0.4377657355573613</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2091</v>
+        <v>0.4182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1973967393664232</v>
+        <v>0.404648827792142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1259</v>
+        <v>0.2518</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1302788746888638</v>
+        <v>0.2576743209914657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1820333333333334</v>
+        <v>0.3640666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.173199878944424</v>
+        <v>0.363172063358952</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2203333333333333</v>
+        <v>0.4406666666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2159881248575434</v>
+        <v>0.4408204890618022</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2120666666666667</v>
+        <v>0.4241333333333333</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2046936954015118</v>
+        <v>0.4196183188186363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2096333333333333</v>
+        <v>0.4192666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2050840876952735</v>
+        <v>0.4192742041359718</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1599333333333333</v>
+        <v>0.3198666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1496159879735411</v>
+        <v>0.3094602907291189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.1253333333333333</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1282767780683197</v>
+        <v>0.2551853156887477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2084</v>
+        <v>0.4168</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1970956714152111</v>
+        <v>0.4041024445881569</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2181</v>
+        <v>0.4362</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2148819093328706</v>
+        <v>0.438570534371294</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2011666666666667</v>
+        <v>0.4023333333333334</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1923925519231613</v>
+        <v>0.3950663027672969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.2063666666666667</v>
+        <v>0.4127333333333333</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1963883094876904</v>
+        <v>0.4028530116705458</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1995666666666667</v>
+        <v>0.3991333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1930885447701572</v>
+        <v>0.3964057457969695</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2072</v>
+        <v>0.4144</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2007282274022577</v>
+        <v>0.4107606545396354</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1931333333333334</v>
+        <v>0.3862666666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.185543770939232</v>
+        <v>0.3825114770093342</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1226333333333334</v>
+        <v>0.2452666666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1162174138933235</v>
+        <v>0.2397734785287938</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2126333333333333</v>
+        <v>0.4252666666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2047035955285087</v>
+        <v>0.4193519198936295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1387666666666667</v>
+        <v>0.2775333333333334</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1438259219904235</v>
+        <v>0.2810125178840919</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03876666666666667</v>
+        <v>0.07753333333333334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04480370024366001</v>
+        <v>0.07716082290185652</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1811333333333333</v>
+        <v>0.3622666666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1718545112085116</v>
+        <v>0.3573508085338607</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1829333333333333</v>
+        <v>0.3658666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1756104065773535</v>
+        <v>0.3674098762335631</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0007</v>
+        <v>0.0014</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.04018171134417722</v>
+        <v>-0.06749143567662033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2036666666666667</v>
+        <v>0.4073333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1936544705735236</v>
+        <v>0.3978524759169814</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.2138333333333333</v>
+        <v>0.4276666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2045362304704375</v>
+        <v>0.4180343620544293</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1322666666666667</v>
+        <v>0.2645333333333333</v>
       </c>
       <c r="D22" t="n">
-        <v>0.142626083666303</v>
+        <v>0.2743258325630195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.1304666666666667</v>
+        <v>0.2609333333333334</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1387168575793142</v>
+        <v>0.2683982492991878</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2188666666666667</v>
+        <v>0.4377333333333334</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2160919334741943</v>
+        <v>0.4407708954414731</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.2053</v>
+        <v>0.4106</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1962000761165454</v>
+        <v>0.402441385029569</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2135</v>
+        <v>0.427</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2050002430405765</v>
+        <v>0.4195383593959131</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2025333333333333</v>
+        <v>0.4050666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1946893152128721</v>
+        <v>0.3997813375287371</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1924</v>
+        <v>0.3848</v>
       </c>
       <c r="D25" t="n">
-        <v>0.185853357846907</v>
+        <v>0.3831775851666056</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.2114666666666667</v>
+        <v>0.4229333333333334</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2049372949809554</v>
+        <v>0.4202121507041964</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2121</v>
+        <v>0.4242000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2048867050494664</v>
+        <v>0.4187855878372682</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.213</v>
+        <v>0.426</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2046608972870311</v>
+        <v>0.4195043881629587</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1758333333333333</v>
+        <v>0.3516666666666666</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1746194975723171</v>
+        <v>0.344705133003901</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1875333333333333</v>
+        <v>0.3750666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1769267353220523</v>
+        <v>0.3688054303580773</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109</v>
+        <v>0.218</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1170704074111889</v>
+        <v>0.2253231921699052</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1883333333333334</v>
+        <v>0.3766666666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1785626521454168</v>
+        <v>0.3700134884724887</v>
       </c>
       <c r="C29" t="n">
-        <v>0.197</v>
+        <v>0.394</v>
       </c>
       <c r="D29" t="n">
-        <v>0.19019152165747</v>
+        <v>0.3906868609930274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1048333333333333</v>
+        <v>0.2096666666666667</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1089802462394524</v>
+        <v>0.2186222662416131</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2078333333333333</v>
+        <v>0.4156666666666666</v>
       </c>
       <c r="D30" t="n">
-        <v>0.199711191140808</v>
+        <v>0.4088814863745458</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.1036</v>
+        <v>0.2072</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1013396858555759</v>
+        <v>0.1829299636612025</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2056666666666667</v>
+        <v>0.4113333333333333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1969545605548277</v>
+        <v>0.4043035134819106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.2163666666666667</v>
+        <v>0.4327333333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2069650700076234</v>
+        <v>0.4241710223268735</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08146666666666667</v>
+        <v>0.1629333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06052270234523652</v>
+        <v>0.1051539107752597</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2174333333333333</v>
+        <v>0.4348666666666667</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2165960140741749</v>
+        <v>0.4417078926004018</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1889666666666667</v>
+        <v>0.3779333333333334</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1789311427570116</v>
+        <v>0.3702217970667201</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.1237666666666667</v>
+        <v>0.2475333333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1220459262188062</v>
+        <v>0.2473626713059723</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1053666666666667</v>
+        <v>0.2107333333333334</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09556976624317107</v>
+        <v>0.2001535970366983</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.1957333333333333</v>
+        <v>0.3914666666666666</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1916342135953615</v>
+        <v>0.3936155664169967</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1326666666666667</v>
+        <v>0.2653333333333333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1431804538596167</v>
+        <v>0.2754777038508877</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.2041666666666667</v>
+        <v>0.4083333333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1939432274148072</v>
+        <v>0.3978007355737952</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1818</v>
+        <v>0.3636</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1725943269861052</v>
+        <v>0.3613729377411667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.1979333333333334</v>
+        <v>0.3958666666666668</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1909579563298814</v>
+        <v>0.3922064306038418</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1079333333333333</v>
+        <v>0.2158666666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1117515237652903</v>
+        <v>0.2180988607064409</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1156666666666667</v>
+        <v>0.2313333333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1133977965006722</v>
+        <v>0.2289235520801109</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2093666666666667</v>
+        <v>0.4187333333333334</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1980298485627318</v>
+        <v>0.4058010070311808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.1362333333333333</v>
+        <v>0.2724666666666667</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1439740527008287</v>
+        <v>0.2784070773501869</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1954</v>
+        <v>0.3908</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1881228528857103</v>
+        <v>0.3875826981913231</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2106666666666667</v>
+        <v>0.4213333333333333</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2050740407747149</v>
+        <v>0.4205060422291773</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2045333333333333</v>
+        <v>0.4090666666666667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1935007612897547</v>
+        <v>0.3975060925586766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.1278</v>
+        <v>0.2556</v>
       </c>
       <c r="B41" t="n">
-        <v>0.134059176031118</v>
+        <v>0.2623905322538657</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1873333333333334</v>
+        <v>0.3746666666666667</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1796048062278066</v>
+        <v>0.3705552251914773</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2003333333333333</v>
+        <v>0.4006666666666667</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1932988176261363</v>
+        <v>0.3968236229050194</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1051666666666667</v>
+        <v>0.2103333333333333</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09482402382667279</v>
+        <v>0.2002894351802543</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.2186</v>
+        <v>0.4372</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2167832522398186</v>
+        <v>0.4420912674793285</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0004666666666666667</v>
+        <v>0.0009333333333333334</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.01554631853790264</v>
+        <v>-0.02636857885808166</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1919</v>
+        <v>0.3838</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1846777143664159</v>
+        <v>0.3805237942583909</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2088</v>
+        <v>0.4176</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2051366189826404</v>
+        <v>0.4194650161631288</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1879333333333333</v>
+        <v>0.3758666666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1773574948653075</v>
+        <v>0.3691733944892287</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1409666666666667</v>
+        <v>0.2819333333333333</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1434820463603425</v>
+        <v>0.2828809046624277</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1909666666666666</v>
+        <v>0.3819333333333333</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1810822879419584</v>
+        <v>0.3712296695223214</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1910666666666667</v>
+        <v>0.3821333333333334</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1808911171477742</v>
+        <v>0.3711242306487782</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.1233</v>
+        <v>0.2466</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1200130732056245</v>
+        <v>0.2447585886587789</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1348666666666667</v>
+        <v>0.2697333333333333</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1438381470250206</v>
+        <v>0.2774906773568721</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.1798</v>
+        <v>0.3596</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1729102357505212</v>
+        <v>0.3483235812463381</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2074333333333333</v>
+        <v>0.4148666666666667</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1966870133895921</v>
+        <v>0.4035311983209122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.1267333333333333</v>
+        <v>0.2534666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1322229213313696</v>
+        <v>0.2600933566324092</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2031</v>
+        <v>0.4061999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1945188126498824</v>
+        <v>0.3994515419126333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1667</v>
+        <v>0.3334</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1719516264718974</v>
+        <v>0.3374477082180184</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1046</v>
+        <v>0.2092</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09684896425663472</v>
+        <v>0.2042533657679148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1719666666666667</v>
+        <v>0.3439333333333334</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1757987489167999</v>
+        <v>0.3406719082822001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1050666666666667</v>
+        <v>0.2101333333333334</v>
       </c>
       <c r="D51" t="n">
-        <v>0.095078494738187</v>
+        <v>0.201132624773602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2236333333333333</v>
+        <v>0.4472666666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2133316477580663</v>
+        <v>0.4363118077222233</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2074333333333333</v>
+        <v>0.4148666666666667</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19655107782377</v>
+        <v>0.4032173572329624</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.1248666666666667</v>
+        <v>0.2497333333333333</v>
       </c>
       <c r="B53" t="n">
-        <v>0.126204995819304</v>
+        <v>0.252602521176122</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1075333333333333</v>
+        <v>0.2150666666666667</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1096624240762104</v>
+        <v>0.2154444584258856</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.2176</v>
+        <v>0.4352</v>
       </c>
       <c r="B54" t="n">
-        <v>0.216732534123998</v>
+        <v>0.4419744433157757</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2069333333333333</v>
+        <v>0.4138666666666667</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1969291337304961</v>
+        <v>0.4043010526477574</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1911666666666667</v>
+        <v>0.3823333333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1822733688460434</v>
+        <v>0.3732269881346651</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1964333333333333</v>
+        <v>0.3928666666666666</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1884397857847004</v>
+        <v>0.3881486048264441</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.1715666666666666</v>
+        <v>0.3431333333333333</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1754314502081905</v>
+        <v>0.3403094130115222</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2041333333333333</v>
+        <v>0.4082666666666666</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1960210515553797</v>
+        <v>0.4021610098979384</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.1991</v>
+        <v>0.3982000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1901614766406117</v>
+        <v>0.3910997294674942</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1827333333333333</v>
+        <v>0.3654666666666667</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1723444028509439</v>
+        <v>0.3604079646150267</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.2080333333333333</v>
+        <v>0.4160666666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>0.196805565765163</v>
+        <v>0.4035769268034934</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1072333333333333</v>
+        <v>0.2144666666666667</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1075150011265273</v>
+        <v>0.2127958201846184</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.1063666666666667</v>
+        <v>0.2127333333333333</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1012364477244866</v>
+        <v>0.2055260484801826</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1925333333333333</v>
+        <v>0.3850666666666667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1827068126065349</v>
+        <v>0.3747935186941019</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.2021333333333334</v>
+        <v>0.4042666666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1913168170112445</v>
+        <v>0.3926705786242229</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2167666666666667</v>
+        <v>0.4335333333333333</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2109917744968481</v>
+        <v>0.4315443741654952</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.2119666666666667</v>
+        <v>0.4239333333333333</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2047488702065441</v>
+        <v>0.4197709665532423</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2045333333333333</v>
+        <v>0.4090666666666667</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1957480650541983</v>
+        <v>0.4014786852448288</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.2131</v>
+        <v>0.4262</v>
       </c>
       <c r="B62" t="n">
-        <v>0.204843753248171</v>
+        <v>0.419428831059053</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1219</v>
+        <v>0.2438</v>
       </c>
       <c r="D62" t="n">
-        <v>0.114514472936572</v>
+        <v>0.2374585165580303</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1723666666666667</v>
+        <v>0.3447333333333333</v>
       </c>
       <c r="B63" t="n">
-        <v>0.175588942128414</v>
+        <v>0.3432240914294513</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1136666666666667</v>
+        <v>0.2273333333333333</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1169869535287639</v>
+        <v>0.231286198264373</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.1035666666666667</v>
+        <v>0.2071333333333333</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1106583192299816</v>
+        <v>0.204114773950685</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2165666666666667</v>
+        <v>0.4331333333333333</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2115740980871144</v>
+        <v>0.4325978795432154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.2148</v>
+        <v>0.4296</v>
       </c>
       <c r="B65" t="n">
-        <v>0.204950213575825</v>
+        <v>0.419504982125811</v>
       </c>
       <c r="C65" t="n">
-        <v>0.104</v>
+        <v>0.208</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08505021134098248</v>
+        <v>0.1505012903734455</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.1048333333333333</v>
+        <v>0.2096666666666667</v>
       </c>
       <c r="B66" t="n">
-        <v>0.114075558709542</v>
+        <v>0.2206824312596711</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1131333333333333</v>
+        <v>0.2262666666666667</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1180741900839216</v>
+        <v>0.2319500504135899</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.2042666666666667</v>
+        <v>0.4085333333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1962660153401709</v>
+        <v>0.4026022562860025</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1903333333333333</v>
+        <v>0.3806666666666667</v>
       </c>
       <c r="D67" t="n">
-        <v>0.1820854660733539</v>
+        <v>0.372627403043326</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.2034</v>
+        <v>0.4068</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1952071623253405</v>
+        <v>0.4007019254931465</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2049666666666667</v>
+        <v>0.4099333333333333</v>
       </c>
       <c r="D68" t="n">
-        <v>0.194694767525098</v>
+        <v>0.4001226587325915</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1049</v>
+        <v>0.2098</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1067156603777285</v>
+        <v>0.2165103662451551</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2034</v>
+        <v>0.4068000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.192932123422406</v>
+        <v>0.3962247467637426</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.2000666666666667</v>
+        <v>0.4001333333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>0.190787670417759</v>
+        <v>0.3916621770980113</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2021</v>
+        <v>0.4042000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1927969452312192</v>
+        <v>0.3959261260401825</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.1984333333333334</v>
+        <v>0.3968666666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1897396551033425</v>
+        <v>0.3897527510336782</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1917</v>
+        <v>0.3834</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1849538582996071</v>
+        <v>0.3811800994102724</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1159666666666667</v>
+        <v>0.2319333333333333</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1122596222806195</v>
+        <v>0.2281931750775439</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1719333333333334</v>
+        <v>0.3438666666666667</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1758461898025648</v>
+        <v>0.3428335507551516</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.1913333333333333</v>
+        <v>0.3826666666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1823712122438937</v>
+        <v>0.3735722955986923</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1663</v>
+        <v>0.3326</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1728662181846853</v>
+        <v>0.3381998149372402</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.2012</v>
+        <v>0.4023999999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1922442833661058</v>
+        <v>0.3944594497495657</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2035</v>
+        <v>0.407</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1944340678388743</v>
+        <v>0.3993252217589708</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1984333333333333</v>
+        <v>0.3968666666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>0.189734651412813</v>
+        <v>0.3897293864798834</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1965666666666667</v>
+        <v>0.3931333333333334</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1900496321360746</v>
+        <v>0.3904017269612211</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.1575666666666667</v>
+        <v>0.3151333333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>0.153709739756626</v>
+        <v>0.3164577465520138</v>
       </c>
       <c r="C76" t="n">
-        <v>0.2116</v>
+        <v>0.4232</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2033792516855364</v>
+        <v>0.4157487822918535</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.1787333333333333</v>
+        <v>0.3574666666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>0.171763963855574</v>
+        <v>0.355237209002255</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2021333333333334</v>
+        <v>0.4042666666666667</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1893471282902704</v>
+        <v>0.3897242343954732</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.2117333333333333</v>
+        <v>0.4234666666666667</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2047874862418155</v>
+        <v>0.4185655456542838</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2114333333333333</v>
+        <v>0.4228666666666667</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2049695146649778</v>
+        <v>0.4189778856227612</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.1047666666666667</v>
+        <v>0.2095333333333333</v>
       </c>
       <c r="B79" t="n">
-        <v>0.09575720399734924</v>
+        <v>0.2024674997224272</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2184333333333333</v>
+        <v>0.4368666666666667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2143885584884902</v>
+        <v>0.4376787169586034</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.2080666666666667</v>
+        <v>0.4161333333333334</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1990298379142534</v>
+        <v>0.4076294697349636</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2020666666666667</v>
+        <v>0.4041333333333334</v>
       </c>
       <c r="D80" t="n">
-        <v>0.194235763602468</v>
+        <v>0.3987203350935814</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.205</v>
+        <v>0.41</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1948833592626592</v>
+        <v>0.4005173490135309</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1399</v>
+        <v>0.2798</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1436635894134871</v>
+        <v>0.2819197023431016</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.1872333333333334</v>
+        <v>0.3744666666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1799072490799863</v>
+        <v>0.3706894790020784</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1973666666666667</v>
+        <v>0.3947333333333334</v>
       </c>
       <c r="D82" t="n">
-        <v>0.192398350226008</v>
+        <v>0.3950416361434759</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.1092333333333333</v>
+        <v>0.2184666666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1183983019713943</v>
+        <v>0.2273116232700841</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2121666666666667</v>
+        <v>0.4243333333333334</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2059458985366924</v>
+        <v>0.4222416709221404</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1970333333333333</v>
+        <v>0.3940666666666666</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1899055244634664</v>
+        <v>0.3900175525087295</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1204333333333333</v>
+        <v>0.2408666666666667</v>
       </c>
       <c r="D84" t="n">
-        <v>0.11052165934959</v>
+        <v>0.2316164932244762</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.1486666666666667</v>
+        <v>0.2973333333333333</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1431527166057852</v>
+        <v>0.290640343366428</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1298</v>
+        <v>0.2596</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1373153593323463</v>
+        <v>0.2665440889052911</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.2173333333333334</v>
+        <v>0.4346666666666667</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2087854878622586</v>
+        <v>0.4275317950542586</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1821666666666667</v>
+        <v>0.3643333333333333</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1747455878871154</v>
+        <v>0.3662134094899669</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.2116</v>
+        <v>0.4232</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2031307169352297</v>
+        <v>0.415272133508729</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2065</v>
+        <v>0.413</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1965291562513263</v>
+        <v>0.4030771488128189</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.1715666666666666</v>
+        <v>0.3431333333333333</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1762085899303568</v>
+        <v>0.3421617426248957</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1980333333333334</v>
+        <v>0.3960666666666667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1897747587316811</v>
+        <v>0.3898338813362794</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.1992</v>
+        <v>0.3984</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1903503096704584</v>
+        <v>0.3908380365464127</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2092333333333333</v>
+        <v>0.4184666666666666</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2051178633591315</v>
+        <v>0.4193824837641651</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.1044333333333333</v>
+        <v>0.2088666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1001087328156537</v>
+        <v>0.2088413857076198</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2004666666666667</v>
+        <v>0.4009333333333333</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1890534473370734</v>
+        <v>0.3892205389555135</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.2046333333333333</v>
+        <v>0.4092666666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1953833271427121</v>
+        <v>0.4010166932067418</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1036</v>
+        <v>0.2072</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1068051048106022</v>
+        <v>0.1948583809240607</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.1109333333333333</v>
+        <v>0.2218666666666667</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1208812585768492</v>
+        <v>0.2322810706656368</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2042</v>
+        <v>0.4084</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1944714580343804</v>
+        <v>0.39938256147907</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.1818</v>
+        <v>0.3636</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1751747096185766</v>
+        <v>0.3668399955023173</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1885333333333333</v>
+        <v>0.3770666666666667</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1801872455226299</v>
+        <v>0.3708089628442919</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1997</v>
+        <v>0.3994</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1944233363707219</v>
+        <v>0.3993104560069682</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2098</v>
+        <v>0.4196</v>
       </c>
       <c r="D94" t="n">
-        <v>0.197708651954864</v>
+        <v>0.4052159359293677</v>
       </c>
     </row>
   </sheetData>
